--- a/data/population_models/models_summary_hainich_female_weight95.xlsx
+++ b/data/population_models/models_summary_hainich_female_weight95.xlsx
@@ -465,7 +465,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>76 [54-108]</t>
+          <t>54 [39-77]</t>
         </is>
       </c>
     </row>
@@ -515,7 +515,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>90 [66-126]</t>
+          <t>64 [47-89]</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>93 [67-128]</t>
+          <t>66 [48-91]</t>
         </is>
       </c>
     </row>
@@ -615,7 +615,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>74 [53-105]</t>
+          <t>52 [37-74]</t>
         </is>
       </c>
     </row>
@@ -665,7 +665,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>93 [67-128]</t>
+          <t>66 [48-91]</t>
         </is>
       </c>
     </row>
@@ -715,7 +715,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>93 [68-129]</t>
+          <t>66 [48-92]</t>
         </is>
       </c>
     </row>
@@ -765,7 +765,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>74 [53-105]</t>
+          <t>52 [37-74]</t>
         </is>
       </c>
     </row>
@@ -815,7 +815,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>91 [66-127]</t>
+          <t>65 [47-90]</t>
         </is>
       </c>
     </row>
@@ -865,7 +865,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>92 [67-128]</t>
+          <t>65 [47-91]</t>
         </is>
       </c>
     </row>
@@ -915,7 +915,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>82 [58-119]</t>
+          <t>59 [41-85]</t>
         </is>
       </c>
     </row>
@@ -965,7 +965,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>88 [64-122]</t>
+          <t>62 [45-87]</t>
         </is>
       </c>
     </row>
@@ -1015,7 +1015,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>90 [65-125]</t>
+          <t>64 [46-89]</t>
         </is>
       </c>
     </row>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>76 [54-108]</t>
+          <t>54 [38-77]</t>
         </is>
       </c>
     </row>
@@ -1115,7 +1115,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>90 [66-125]</t>
+          <t>64 [47-89]</t>
         </is>
       </c>
     </row>
@@ -1165,7 +1165,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>91 [66-126]</t>
+          <t>65 [47-90]</t>
         </is>
       </c>
     </row>
@@ -1215,7 +1215,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>79 [57-110]</t>
+          <t>56 [40-78]</t>
         </is>
       </c>
     </row>
@@ -1265,7 +1265,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>88 [64-122]</t>
+          <t>63 [46-87]</t>
         </is>
       </c>
     </row>
@@ -1315,7 +1315,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>90 [65-125]</t>
+          <t>64 [46-89]</t>
         </is>
       </c>
     </row>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>79 [55-114]</t>
+          <t>56 [39-81]</t>
         </is>
       </c>
     </row>
@@ -1415,7 +1415,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>90 [66-125]</t>
+          <t>64 [47-89]</t>
         </is>
       </c>
     </row>
@@ -1465,7 +1465,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>90 [66-125]</t>
+          <t>64 [47-89]</t>
         </is>
       </c>
     </row>
@@ -1515,7 +1515,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>93 [66-131]</t>
+          <t>66 [47-93]</t>
         </is>
       </c>
     </row>
@@ -1565,7 +1565,7 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>106 [77-147]</t>
+          <t>76 [55-105]</t>
         </is>
       </c>
     </row>
@@ -1615,7 +1615,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>81 [58-116]</t>
+          <t>58 [41-82]</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>163 [83-328]</t>
+          <t>116 [59-233]</t>
         </is>
       </c>
     </row>
@@ -1715,7 +1715,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>84 [61-118]</t>
+          <t>60 [43-84]</t>
         </is>
       </c>
     </row>
@@ -1765,7 +1765,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>117 [71-196]</t>
+          <t>83 [50-140]</t>
         </is>
       </c>
     </row>
@@ -1815,7 +1815,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>78 [55-111]</t>
+          <t>55 [39-79]</t>
         </is>
       </c>
     </row>
@@ -1865,7 +1865,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>91 [66-126]</t>
+          <t>65 [47-90]</t>
         </is>
       </c>
     </row>
@@ -1915,7 +1915,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>93 [67-128]</t>
+          <t>66 [48-91]</t>
         </is>
       </c>
     </row>
@@ -1965,7 +1965,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>89 [64-124]</t>
+          <t>63 [46-88]</t>
         </is>
       </c>
     </row>
@@ -2015,7 +2015,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>82 [53-128]</t>
+          <t>58 [38-91]</t>
         </is>
       </c>
     </row>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>88 [64-122]</t>
+          <t>62 [45-86]</t>
         </is>
       </c>
     </row>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>88 [63-122]</t>
+          <t>62 [45-87]</t>
         </is>
       </c>
     </row>
@@ -2165,7 +2165,7 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>86 [63-119]</t>
+          <t>61 [45-85]</t>
         </is>
       </c>
     </row>
@@ -2215,7 +2215,7 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>87 [64-121]</t>
+          <t>62 [45-86]</t>
         </is>
       </c>
     </row>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>88 [64-123]</t>
+          <t>63 [45-88]</t>
         </is>
       </c>
     </row>
@@ -2315,7 +2315,7 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>86 [63-119]</t>
+          <t>61 [45-85]</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>87 [63-121]</t>
+          <t>62 [45-86]</t>
         </is>
       </c>
     </row>
@@ -2415,7 +2415,7 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>91 [66-126]</t>
+          <t>64 [47-90]</t>
         </is>
       </c>
     </row>
@@ -2465,7 +2465,7 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>79 [56-114]</t>
+          <t>56 [40-81]</t>
         </is>
       </c>
     </row>
@@ -2515,7 +2515,7 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>88 [64-122]</t>
+          <t>62 [45-87]</t>
         </is>
       </c>
     </row>
@@ -2565,7 +2565,7 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>89 [65-125]</t>
+          <t>64 [46-89]</t>
         </is>
       </c>
     </row>
@@ -2615,7 +2615,7 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>85 [61-118]</t>
+          <t>60 [44-84]</t>
         </is>
       </c>
     </row>
@@ -2665,7 +2665,7 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>88 [64-122]</t>
+          <t>62 [45-87]</t>
         </is>
       </c>
     </row>
@@ -2715,7 +2715,7 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>92 [67-129]</t>
+          <t>66 [48-91]</t>
         </is>
       </c>
     </row>
@@ -2765,7 +2765,7 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>83 [60-117]</t>
+          <t>59 [42-83]</t>
         </is>
       </c>
     </row>
@@ -2815,7 +2815,7 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>88 [64-123]</t>
+          <t>63 [45-87]</t>
         </is>
       </c>
     </row>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>91 [66-127]</t>
+          <t>65 [47-90]</t>
         </is>
       </c>
     </row>
@@ -2915,7 +2915,7 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>86 [63-120]</t>
+          <t>61 [45-85]</t>
         </is>
       </c>
     </row>
@@ -2965,7 +2965,7 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>88 [64-122]</t>
+          <t>62 [45-86]</t>
         </is>
       </c>
     </row>
@@ -3015,7 +3015,7 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>100 [63-162]</t>
+          <t>71 [45-115]</t>
         </is>
       </c>
     </row>
@@ -3065,7 +3065,7 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>199 [113-356]</t>
+          <t>141 [80-253]</t>
         </is>
       </c>
     </row>
@@ -3115,7 +3115,7 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>199 [115-350]</t>
+          <t>142 [82-249]</t>
         </is>
       </c>
     </row>
@@ -3165,7 +3165,7 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>171 [95-315]</t>
+          <t>122 [67-224]</t>
         </is>
       </c>
     </row>
@@ -3215,7 +3215,7 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>107 [64-181]</t>
+          <t>76 [46-129]</t>
         </is>
       </c>
     </row>
@@ -3265,7 +3265,7 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>119 [70-205]</t>
+          <t>84 [50-146]</t>
         </is>
       </c>
     </row>
@@ -3315,7 +3315,7 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>90 [65-125]</t>
+          <t>64 [46-89]</t>
         </is>
       </c>
     </row>
@@ -3365,7 +3365,7 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>86 [63-119]</t>
+          <t>61 [44-85]</t>
         </is>
       </c>
     </row>
@@ -3415,7 +3415,7 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>88 [64-122]</t>
+          <t>62 [45-87]</t>
         </is>
       </c>
     </row>
@@ -3465,7 +3465,7 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>77 [55-108]</t>
+          <t>54 [39-77]</t>
         </is>
       </c>
     </row>
@@ -3515,7 +3515,7 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>77 [55-108]</t>
+          <t>55 [39-77]</t>
         </is>
       </c>
     </row>
@@ -3565,7 +3565,7 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>87 [61-124]</t>
+          <t>62 [44-88]</t>
         </is>
       </c>
     </row>
@@ -3615,7 +3615,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>77 [56-109]</t>
+          <t>55 [39-77]</t>
         </is>
       </c>
     </row>
@@ -3665,7 +3665,7 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>77 [55-109]</t>
+          <t>55 [39-77]</t>
         </is>
       </c>
     </row>
@@ -3715,7 +3715,7 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>96 [68-136]</t>
+          <t>68 [48-97]</t>
         </is>
       </c>
     </row>
@@ -3765,7 +3765,7 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>78 [56-110]</t>
+          <t>56 [40-78]</t>
         </is>
       </c>
     </row>
@@ -3815,7 +3815,7 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>79 [56-111]</t>
+          <t>56 [40-79]</t>
         </is>
       </c>
     </row>
@@ -3865,7 +3865,7 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>77 [55-109]</t>
+          <t>55 [39-77]</t>
         </is>
       </c>
     </row>
@@ -3915,7 +3915,7 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>79 [57-111]</t>
+          <t>56 [40-79]</t>
         </is>
       </c>
     </row>
@@ -3965,7 +3965,7 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>80 [58-112]</t>
+          <t>57 [41-80]</t>
         </is>
       </c>
     </row>
@@ -4015,7 +4015,7 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>82 [59-116]</t>
+          <t>58 [42-82]</t>
         </is>
       </c>
     </row>
@@ -4065,7 +4065,7 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>80 [57-112]</t>
+          <t>57 [41-79]</t>
         </is>
       </c>
     </row>
@@ -4115,7 +4115,7 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>80 [57-112]</t>
+          <t>57 [41-79]</t>
         </is>
       </c>
     </row>
@@ -4165,7 +4165,7 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>93 [65-133]</t>
+          <t>66 [46-94]</t>
         </is>
       </c>
     </row>
@@ -4215,7 +4215,7 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>81 [58-114]</t>
+          <t>58 [42-81]</t>
         </is>
       </c>
     </row>
@@ -4265,7 +4265,7 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>82 [59-114]</t>
+          <t>58 [42-81]</t>
         </is>
       </c>
     </row>
@@ -4315,7 +4315,7 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>82 [59-115]</t>
+          <t>58 [42-82]</t>
         </is>
       </c>
     </row>
@@ -4365,7 +4365,7 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>82 [59-115]</t>
+          <t>58 [42-82]</t>
         </is>
       </c>
     </row>
@@ -4415,7 +4415,7 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>83 [59-116]</t>
+          <t>59 [42-83]</t>
         </is>
       </c>
     </row>
@@ -4465,7 +4465,7 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>81 [58-114]</t>
+          <t>57 [41-81]</t>
         </is>
       </c>
     </row>
@@ -4515,7 +4515,7 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>77 [54-111]</t>
+          <t>55 [38-79]</t>
         </is>
       </c>
     </row>
@@ -4565,7 +4565,7 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>62 [44-89]</t>
+          <t>44 [31-63]</t>
         </is>
       </c>
     </row>
@@ -4615,7 +4615,7 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>66 [46-97]</t>
+          <t>47 [32-69]</t>
         </is>
       </c>
     </row>
@@ -4665,7 +4665,7 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>184 [97-354]</t>
+          <t>131 [69-251]</t>
         </is>
       </c>
     </row>
@@ -4715,7 +4715,7 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>66 [46-97]</t>
+          <t>47 [33-69]</t>
         </is>
       </c>
     </row>
@@ -4765,7 +4765,7 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>61 [43-87]</t>
+          <t>43 [31-62]</t>
         </is>
       </c>
     </row>
@@ -4815,7 +4815,7 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>78 [56-109]</t>
+          <t>55 [40-78]</t>
         </is>
       </c>
     </row>
@@ -4865,7 +4865,7 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>78 [56-109]</t>
+          <t>55 [40-78]</t>
         </is>
       </c>
     </row>
@@ -4915,7 +4915,7 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>78 [56-110]</t>
+          <t>55 [40-78]</t>
         </is>
       </c>
     </row>
